--- a/public/uploads/Dotacion turno A del 03-01-2023.xlsx
+++ b/public/uploads/Dotacion turno A del 03-01-2023.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F18A15-5AC7-4C3B-BB9E-D2B8112E00FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E444E73A-22BD-4543-B9FA-01F6266BB7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,13 +868,13 @@
     <t>MECANICOS</t>
   </si>
   <si>
-    <t>DOTACION TURNO  A DEL 03-01-2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">VACACIONES </t>
   </si>
   <si>
     <t xml:space="preserve">AUSENCIA </t>
+  </si>
+  <si>
+    <t>DOTACION TURNO  A DEL 03-01-2023</t>
   </si>
 </sst>
 </file>
@@ -1427,89 +1427,89 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,46 +1934,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
+      <c r="A1" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="70" t="s">
         <v>250</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2011,12 +2011,12 @@
       <c r="E7" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="77">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
@@ -2029,10 +2029,10 @@
       <c r="E8" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="6" t="s">
         <v>87</v>
       </c>
@@ -2045,10 +2045,10 @@
       <c r="E9" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2061,10 +2061,10 @@
       <c r="E10" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="33" t="s">
         <v>270</v>
       </c>
@@ -2077,10 +2077,10 @@
       <c r="E11" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="77"/>
     </row>
     <row r="12" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
@@ -2093,10 +2093,10 @@
       <c r="E12" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="21" t="s">
         <v>18</v>
       </c>
@@ -2109,10 +2109,10 @@
       <c r="E13" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
@@ -2125,10 +2125,10 @@
       <c r="E14" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
@@ -2141,10 +2141,10 @@
       <c r="E15" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2159,12 +2159,12 @@
       <c r="E16" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
@@ -2177,10 +2177,10 @@
       <c r="E17" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="68"/>
+      <c r="F17" s="76"/>
     </row>
     <row r="18" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2193,10 +2193,10 @@
       <c r="E18" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="68"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
@@ -2209,10 +2209,10 @@
       <c r="E19" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F19" s="68"/>
+      <c r="F19" s="76"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="71" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2227,12 +2227,12 @@
       <c r="E20" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="76">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
@@ -2245,10 +2245,10 @@
       <c r="E21" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="68"/>
+      <c r="F21" s="76"/>
     </row>
     <row r="22" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
@@ -2261,10 +2261,10 @@
       <c r="E22" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="F22" s="68"/>
+      <c r="F22" s="76"/>
     </row>
     <row r="23" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
@@ -2277,10 +2277,10 @@
       <c r="E23" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="68"/>
+      <c r="F23" s="76"/>
     </row>
     <row r="24" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
@@ -2293,10 +2293,10 @@
       <c r="E24" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F24" s="68"/>
+      <c r="F24" s="76"/>
     </row>
     <row r="25" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="6" t="s">
         <v>51</v>
       </c>
@@ -2309,10 +2309,10 @@
       <c r="E25" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="76"/>
     </row>
     <row r="26" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
@@ -2325,10 +2325,10 @@
       <c r="E26" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F26" s="68"/>
+      <c r="F26" s="76"/>
     </row>
     <row r="27" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
@@ -2341,10 +2341,10 @@
       <c r="E27" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="76"/>
     </row>
     <row r="28" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="6" t="s">
         <v>57</v>
       </c>
@@ -2355,12 +2355,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="68"/>
+        <v>277</v>
+      </c>
+      <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="71" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2375,12 +2375,12 @@
       <c r="E29" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="41" t="s">
         <v>251</v>
       </c>
@@ -2393,10 +2393,10 @@
       <c r="E30" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F30" s="68"/>
+      <c r="F30" s="76"/>
     </row>
     <row r="31" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="4" t="s">
         <v>72</v>
       </c>
@@ -2409,10 +2409,10 @@
       <c r="E31" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="76"/>
     </row>
     <row r="32" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="6" t="s">
         <v>64</v>
       </c>
@@ -2425,10 +2425,10 @@
       <c r="E32" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="76"/>
     </row>
     <row r="33" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
@@ -2441,10 +2441,10 @@
       <c r="E33" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="76"/>
     </row>
     <row r="34" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="71" t="s">
         <v>258</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2459,12 +2459,12 @@
       <c r="E34" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F34" s="68">
+      <c r="F34" s="76">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="42" t="s">
         <v>253</v>
       </c>
@@ -2477,10 +2477,10 @@
       <c r="E35" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="76"/>
     </row>
     <row r="36" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
@@ -2491,12 +2491,12 @@
         <v>17</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="68"/>
+        <v>278</v>
+      </c>
+      <c r="F36" s="76"/>
     </row>
     <row r="37" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="6" t="s">
         <v>74</v>
       </c>
@@ -2509,10 +2509,10 @@
       <c r="E37" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F37" s="68"/>
+      <c r="F37" s="76"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
@@ -2525,10 +2525,10 @@
       <c r="E38" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="76"/>
     </row>
     <row r="39" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="71" t="s">
         <v>263</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -2543,12 +2543,12 @@
       <c r="E39" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F39" s="68">
+      <c r="F39" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="6" t="s">
         <v>7</v>
       </c>
@@ -2561,10 +2561,10 @@
       <c r="E40" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F40" s="68"/>
+      <c r="F40" s="76"/>
     </row>
     <row r="41" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="30" t="s">
         <v>102</v>
       </c>
@@ -2575,12 +2575,12 @@
         <v>35</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="F41" s="68"/>
+        <v>277</v>
+      </c>
+      <c r="F41" s="76"/>
     </row>
     <row r="42" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="6" t="s">
         <v>85</v>
       </c>
@@ -2593,10 +2593,10 @@
       <c r="E42" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F42" s="68"/>
+      <c r="F42" s="76"/>
     </row>
     <row r="43" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="6" t="s">
         <v>89</v>
       </c>
@@ -2609,10 +2609,10 @@
       <c r="E43" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F43" s="68"/>
+      <c r="F43" s="76"/>
     </row>
     <row r="44" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="6" t="s">
         <v>91</v>
       </c>
@@ -2625,10 +2625,10 @@
       <c r="E44" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F44" s="68"/>
+      <c r="F44" s="76"/>
     </row>
     <row r="45" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="71" t="s">
         <v>94</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -2643,12 +2643,12 @@
       <c r="E45" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F45" s="68">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="33" t="s">
         <v>249</v>
       </c>
@@ -2661,10 +2661,10 @@
       <c r="E46" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F46" s="69"/>
+      <c r="F46" s="68"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="29" t="s">
         <v>109</v>
       </c>
@@ -2677,10 +2677,10 @@
       <c r="E47" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F47" s="69"/>
+      <c r="F47" s="68"/>
     </row>
     <row r="48" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="29" t="s">
         <v>100</v>
       </c>
@@ -2693,10 +2693,10 @@
       <c r="E48" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F48" s="69"/>
+      <c r="F48" s="68"/>
     </row>
     <row r="49" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="11" t="s">
         <v>196</v>
       </c>
@@ -2709,10 +2709,10 @@
       <c r="E49" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F49" s="69"/>
+      <c r="F49" s="68"/>
     </row>
     <row r="50" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="6" t="s">
         <v>104</v>
       </c>
@@ -2725,10 +2725,10 @@
       <c r="E50" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F50" s="69"/>
+      <c r="F50" s="68"/>
     </row>
     <row r="51" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="6" t="s">
         <v>31</v>
       </c>
@@ -2741,10 +2741,10 @@
       <c r="E51" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F51" s="69"/>
+      <c r="F51" s="68"/>
     </row>
     <row r="52" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="71" t="s">
         <v>106</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -2759,12 +2759,12 @@
       <c r="E52" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F52" s="70">
+      <c r="F52" s="77">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="6" t="s">
         <v>121</v>
       </c>
@@ -2777,10 +2777,10 @@
       <c r="E53" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="F53" s="70"/>
+      <c r="F53" s="77"/>
     </row>
     <row r="54" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="4" t="s">
         <v>111</v>
       </c>
@@ -2793,10 +2793,10 @@
       <c r="E54" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="70"/>
+      <c r="F54" s="77"/>
     </row>
     <row r="55" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="6" t="s">
         <v>113</v>
       </c>
@@ -2807,12 +2807,12 @@
         <v>23</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="F55" s="70"/>
+        <v>277</v>
+      </c>
+      <c r="F55" s="77"/>
     </row>
     <row r="56" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="11" t="s">
         <v>115</v>
       </c>
@@ -2825,10 +2825,10 @@
       <c r="E56" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F56" s="70"/>
+      <c r="F56" s="77"/>
     </row>
     <row r="57" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="70" t="s">
         <v>117</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2843,12 +2843,12 @@
       <c r="E57" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F57" s="68">
+      <c r="F57" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
+      <c r="A58" s="70"/>
       <c r="B58" s="6" t="s">
         <v>266</v>
       </c>
@@ -2861,10 +2861,10 @@
       <c r="E58" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F58" s="68"/>
+      <c r="F58" s="76"/>
     </row>
     <row r="59" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+      <c r="A59" s="70"/>
       <c r="B59" s="11" t="s">
         <v>139</v>
       </c>
@@ -2877,10 +2877,10 @@
       <c r="E59" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F59" s="68"/>
+      <c r="F59" s="76"/>
     </row>
     <row r="60" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="71" t="s">
         <v>124</v>
       </c>
       <c r="B60" s="14" t="s">
@@ -2895,12 +2895,12 @@
       <c r="E60" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F60" s="69">
+      <c r="F60" s="68">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="11" t="s">
         <v>131</v>
       </c>
@@ -2913,10 +2913,10 @@
       <c r="E61" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F61" s="69"/>
+      <c r="F61" s="68"/>
     </row>
     <row r="62" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
+      <c r="A62" s="71"/>
       <c r="B62" s="11" t="s">
         <v>125</v>
       </c>
@@ -2929,10 +2929,10 @@
       <c r="E62" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F62" s="69"/>
+      <c r="F62" s="68"/>
     </row>
     <row r="63" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="6" t="s">
         <v>156</v>
       </c>
@@ -2945,10 +2945,10 @@
       <c r="E63" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F63" s="69"/>
+      <c r="F63" s="68"/>
     </row>
     <row r="64" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="36" t="s">
         <v>127</v>
       </c>
@@ -2961,10 +2961,10 @@
       <c r="E64" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="F64" s="69"/>
+      <c r="F64" s="68"/>
     </row>
     <row r="65" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="6" t="s">
         <v>133</v>
       </c>
@@ -2977,10 +2977,10 @@
       <c r="E65" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F65" s="69"/>
+      <c r="F65" s="68"/>
     </row>
     <row r="66" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="6" t="s">
         <v>135</v>
       </c>
@@ -2993,10 +2993,10 @@
       <c r="E66" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F66" s="69"/>
+      <c r="F66" s="68"/>
     </row>
     <row r="67" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
+      <c r="A67" s="71"/>
       <c r="B67" s="11" t="s">
         <v>268</v>
       </c>
@@ -3009,10 +3009,10 @@
       <c r="E67" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F67" s="69"/>
+      <c r="F67" s="68"/>
     </row>
     <row r="68" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
+      <c r="A68" s="71"/>
       <c r="B68" s="6" t="s">
         <v>137</v>
       </c>
@@ -3023,12 +3023,12 @@
         <v>17</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="F68" s="69"/>
+        <v>277</v>
+      </c>
+      <c r="F68" s="68"/>
     </row>
     <row r="69" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="70" t="s">
         <v>141</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -3043,12 +3043,12 @@
       <c r="E69" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="F69" s="71">
+      <c r="F69" s="87">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
+      <c r="A70" s="70"/>
       <c r="B70" s="11" t="s">
         <v>144</v>
       </c>
@@ -3061,10 +3061,10 @@
       <c r="E70" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="F70" s="71"/>
+      <c r="F70" s="87"/>
     </row>
     <row r="71" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
+      <c r="A71" s="70"/>
       <c r="B71" s="4" t="s">
         <v>146</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E71" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="F71" s="71"/>
+      <c r="F71" s="87"/>
     </row>
     <row r="72" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="66" t="s">
+      <c r="A72" s="90" t="s">
         <v>276</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -3095,12 +3095,12 @@
       <c r="E72" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="F72" s="72">
+      <c r="F72" s="88">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
+      <c r="A73" s="91"/>
       <c r="B73" s="11" t="s">
         <v>82</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="E73" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F73" s="73"/>
+      <c r="F73" s="89"/>
     </row>
     <row r="74" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
@@ -3136,7 +3136,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="70" t="s">
         <v>259</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -3151,12 +3151,12 @@
       <c r="E75" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F75" s="68">
+      <c r="F75" s="76">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
+      <c r="A76" s="70"/>
       <c r="B76" s="41" t="s">
         <v>255</v>
       </c>
@@ -3169,10 +3169,10 @@
       <c r="E76" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F76" s="68"/>
+      <c r="F76" s="76"/>
     </row>
     <row r="77" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
+      <c r="A77" s="70"/>
       <c r="B77" s="11" t="s">
         <v>4</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E77" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="68"/>
+      <c r="F77" s="76"/>
     </row>
     <row r="78" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="64"/>
+      <c r="A78" s="70"/>
       <c r="B78" s="30" t="s">
         <v>154</v>
       </c>
@@ -3201,10 +3201,10 @@
       <c r="E78" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F78" s="68"/>
+      <c r="F78" s="76"/>
     </row>
     <row r="79" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
+      <c r="A79" s="70"/>
       <c r="B79" s="6" t="s">
         <v>158</v>
       </c>
@@ -3217,10 +3217,10 @@
       <c r="E79" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="F79" s="68"/>
+      <c r="F79" s="76"/>
     </row>
     <row r="80" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="70" t="s">
         <v>160</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -3235,12 +3235,12 @@
       <c r="E80" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F80" s="68">
+      <c r="F80" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
+      <c r="A81" s="70"/>
       <c r="B81" s="6" t="s">
         <v>163</v>
       </c>
@@ -3253,10 +3253,10 @@
       <c r="E81" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F81" s="68"/>
+      <c r="F81" s="76"/>
     </row>
     <row r="82" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="64"/>
+      <c r="A82" s="70"/>
       <c r="B82" s="6" t="s">
         <v>165</v>
       </c>
@@ -3269,10 +3269,10 @@
       <c r="E82" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F82" s="68"/>
+      <c r="F82" s="76"/>
     </row>
     <row r="83" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="64"/>
+      <c r="A83" s="70"/>
       <c r="B83" s="6" t="s">
         <v>167</v>
       </c>
@@ -3283,12 +3283,12 @@
         <v>23</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="F83" s="68"/>
+        <v>277</v>
+      </c>
+      <c r="F83" s="76"/>
     </row>
     <row r="84" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="71" t="s">
         <v>169</v>
       </c>
       <c r="B84" s="29" t="s">
@@ -3303,12 +3303,12 @@
       <c r="E84" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="F84" s="68">
+      <c r="F84" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
+      <c r="A85" s="71"/>
       <c r="B85" s="29" t="s">
         <v>172</v>
       </c>
@@ -3321,10 +3321,10 @@
       <c r="E85" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F85" s="68"/>
+      <c r="F85" s="76"/>
     </row>
     <row r="86" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="29" t="s">
         <v>174</v>
       </c>
@@ -3337,10 +3337,10 @@
       <c r="E86" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F86" s="68"/>
+      <c r="F86" s="76"/>
     </row>
     <row r="87" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="70" t="s">
         <v>176</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -3355,12 +3355,12 @@
       <c r="E87" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F87" s="68">
+      <c r="F87" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
+      <c r="A88" s="70"/>
       <c r="B88" s="6" t="s">
         <v>179</v>
       </c>
@@ -3373,10 +3373,10 @@
       <c r="E88" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F88" s="68"/>
+      <c r="F88" s="76"/>
     </row>
     <row r="89" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
+      <c r="A89" s="70"/>
       <c r="B89" s="6" t="s">
         <v>182</v>
       </c>
@@ -3389,10 +3389,10 @@
       <c r="E89" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F89" s="68"/>
+      <c r="F89" s="76"/>
     </row>
     <row r="90" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="64" t="s">
+      <c r="A90" s="70" t="s">
         <v>184</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3407,12 +3407,12 @@
       <c r="E90" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F90" s="68">
+      <c r="F90" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="64"/>
+      <c r="A91" s="70"/>
       <c r="B91" s="6" t="s">
         <v>188</v>
       </c>
@@ -3425,10 +3425,10 @@
       <c r="E91" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F91" s="68"/>
+      <c r="F91" s="76"/>
     </row>
     <row r="92" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="64"/>
+      <c r="A92" s="70"/>
       <c r="B92" s="14" t="s">
         <v>190</v>
       </c>
@@ -3441,10 +3441,10 @@
       <c r="E92" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="F92" s="68"/>
+      <c r="F92" s="76"/>
     </row>
     <row r="93" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="64" t="s">
+      <c r="A93" s="70" t="s">
         <v>198</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -3459,12 +3459,12 @@
       <c r="E93" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F93" s="70">
+      <c r="F93" s="77">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="64"/>
+      <c r="A94" s="70"/>
       <c r="B94" s="11" t="s">
         <v>201</v>
       </c>
@@ -3477,10 +3477,10 @@
       <c r="E94" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F94" s="70"/>
+      <c r="F94" s="77"/>
     </row>
     <row r="95" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
+      <c r="A95" s="70"/>
       <c r="B95" s="11" t="s">
         <v>203</v>
       </c>
@@ -3493,10 +3493,10 @@
       <c r="E95" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F95" s="70"/>
+      <c r="F95" s="77"/>
     </row>
     <row r="96" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="64"/>
+      <c r="A96" s="70"/>
       <c r="B96" s="11" t="s">
         <v>205</v>
       </c>
@@ -3509,10 +3509,10 @@
       <c r="E96" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="F96" s="70"/>
+      <c r="F96" s="77"/>
     </row>
     <row r="97" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
+      <c r="A97" s="70"/>
       <c r="B97" s="11" t="s">
         <v>207</v>
       </c>
@@ -3525,10 +3525,10 @@
       <c r="E97" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="F97" s="70"/>
+      <c r="F97" s="77"/>
     </row>
     <row r="98" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
+      <c r="A98" s="70"/>
       <c r="B98" s="11" t="s">
         <v>209</v>
       </c>
@@ -3541,10 +3541,10 @@
       <c r="E98" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="F98" s="70"/>
+      <c r="F98" s="77"/>
     </row>
     <row r="99" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="11" t="s">
         <v>211</v>
       </c>
@@ -3557,10 +3557,10 @@
       <c r="E99" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="F99" s="70"/>
+      <c r="F99" s="77"/>
     </row>
     <row r="100" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="64"/>
+      <c r="A100" s="70"/>
       <c r="B100" s="11" t="s">
         <v>213</v>
       </c>
@@ -3573,10 +3573,10 @@
       <c r="E100" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="F100" s="70"/>
+      <c r="F100" s="77"/>
     </row>
     <row r="101" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="64"/>
+      <c r="A101" s="70"/>
       <c r="B101" s="11" t="s">
         <v>215</v>
       </c>
@@ -3589,10 +3589,10 @@
       <c r="E101" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="F101" s="70"/>
+      <c r="F101" s="77"/>
     </row>
     <row r="102" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="65" t="s">
+      <c r="A102" s="71" t="s">
         <v>217</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -3607,12 +3607,12 @@
       <c r="E102" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F102" s="68">
+      <c r="F102" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
+      <c r="A103" s="71"/>
       <c r="B103" s="6" t="s">
         <v>272</v>
       </c>
@@ -3625,10 +3625,10 @@
       <c r="E103" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F103" s="68"/>
+      <c r="F103" s="76"/>
     </row>
     <row r="104" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
+      <c r="A104" s="71"/>
       <c r="B104" s="4" t="s">
         <v>221</v>
       </c>
@@ -3641,10 +3641,10 @@
       <c r="E104" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F104" s="68"/>
+      <c r="F104" s="76"/>
     </row>
     <row r="105" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
+      <c r="A105" s="71"/>
       <c r="B105" s="6" t="s">
         <v>223</v>
       </c>
@@ -3657,10 +3657,10 @@
       <c r="E105" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F105" s="68"/>
+      <c r="F105" s="76"/>
     </row>
     <row r="106" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="65" t="s">
+      <c r="A106" s="71" t="s">
         <v>226</v>
       </c>
       <c r="B106" s="11" t="s">
@@ -3675,12 +3675,12 @@
       <c r="E106" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F106" s="69">
+      <c r="F106" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="65"/>
+      <c r="A107" s="71"/>
       <c r="B107" s="11" t="s">
         <v>230</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="E107" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F107" s="69"/>
+      <c r="F107" s="68"/>
     </row>
     <row r="108" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
@@ -3711,7 +3711,7 @@
       <c r="E108" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="F108" s="91">
+      <c r="F108" s="69">
         <v>3</v>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       <c r="E109" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="F109" s="91"/>
+      <c r="F109" s="69"/>
     </row>
     <row r="110" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
@@ -3749,7 +3749,7 @@
       <c r="E110" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F110" s="91"/>
+      <c r="F110" s="69"/>
     </row>
     <row r="111" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -3767,10 +3767,10 @@
       <c r="E111" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="F111" s="91"/>
+      <c r="F111" s="69"/>
     </row>
     <row r="112" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="87" t="s">
+      <c r="A112" s="64" t="s">
         <v>248</v>
       </c>
       <c r="B112" s="29" t="s">
@@ -3785,12 +3785,12 @@
       <c r="E112" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="F112" s="89">
+      <c r="F112" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="87"/>
+      <c r="A113" s="64"/>
       <c r="B113" s="1" t="s">
         <v>150</v>
       </c>
@@ -3803,10 +3803,10 @@
       <c r="E113" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="F113" s="89"/>
+      <c r="F113" s="66"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="87"/>
+      <c r="A114" s="64"/>
       <c r="B114" s="4" t="s">
         <v>62</v>
       </c>
@@ -3819,10 +3819,10 @@
       <c r="E114" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="F114" s="89"/>
+      <c r="F114" s="66"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="87"/>
+      <c r="A115" s="64"/>
       <c r="B115" s="4" t="s">
         <v>68</v>
       </c>
@@ -3835,10 +3835,10 @@
       <c r="E115" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="F115" s="89"/>
+      <c r="F115" s="66"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="87"/>
+      <c r="A116" s="64"/>
       <c r="B116" s="29" t="s">
         <v>78</v>
       </c>
@@ -3851,10 +3851,10 @@
       <c r="E116" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="F116" s="89"/>
+      <c r="F116" s="66"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="88"/>
+      <c r="A117" s="65"/>
       <c r="B117" s="4" t="s">
         <v>27</v>
       </c>
@@ -3867,56 +3867,23 @@
       <c r="E117" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="F117" s="90"/>
+      <c r="F117" s="67"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E118" s="85" t="s">
+      <c r="E118" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="F118" s="83">
+      <c r="F118" s="72">
         <f>F112+F108+F106+F102+F93+F90+F87+F84+F80+F75+F74+F69+F60+F57+F52+F45+F39+F34+F29+F20+F16+F7+F72</f>
         <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E119" s="86"/>
-      <c r="F119" s="84"/>
+      <c r="E119" s="75"/>
+      <c r="F119" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="F112:F117"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F108:F111"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="F93:F101"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="A1:F5"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="F45:F51"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F60:F68"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="F72:F73"/>
     <mergeCell ref="A87:A89"/>
     <mergeCell ref="A90:A92"/>
     <mergeCell ref="A34:A38"/>
@@ -3930,6 +3897,39 @@
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A84:A86"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="F45:F51"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F60:F68"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A1:F5"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="F93:F101"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="F112:F117"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F111"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A107"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
